--- a/structured_output_of_StructV3.xlsx
+++ b/structured_output_of_StructV3.xlsx
@@ -1,37 +1,384 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fontys\internship\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94A948B-315D-499B-BBA8-F82FCA671230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>Job title</t>
+  </si>
+  <si>
+    <t>Language of job posting</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>responsibilities</t>
+  </si>
+  <si>
+    <t>requirements</t>
+  </si>
+  <si>
+    <t>Educational level</t>
+  </si>
+  <si>
+    <t>Field of ICT</t>
+  </si>
+  <si>
+    <t>GenerativeAI</t>
+  </si>
+  <si>
+    <t>NLP</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>educational level</t>
+  </si>
+  <si>
+    <t>field of ICT</t>
+  </si>
+  <si>
+    <t>AXVECO</t>
+  </si>
+  <si>
+    <t>Medior AI Consultant</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Wilt u jouw carrière ontwikkelen in de AI-praktijk van een snel groeiend bedrijf met een gevestigde naam? Wil je werken in de voorhoede van AI met Tier 1 opdrachtgevers op innovatieve AI toepassingen?</t>
+  </si>
+  <si>
+    <t>Heb je kinderen en wil je liever minder dan 40 uur per week werken? We zorgen voor flexibiliteit in de invulling van jouw functie zodat het werken en leven in balans blijven.</t>
+  </si>
+  <si>
+    <t>Nederlands spreken</t>
+  </si>
+  <si>
+    <t>Master or PhD</t>
+  </si>
+  <si>
+    <t>Software engineering</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Langwatch.ai</t>
+  </si>
+  <si>
+    <t>Full Stack Developer</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Join a thriving startup backed by Antler, and be part of a team that's changing the game in Generative AI. As a Full Stack Developer, you'll help build a SaaS product from scratch, leveraging cutting-edge technologies to create a platform that stands out in reliability, scalability, low touch onboarding, and user experience.</t>
+  </si>
+  <si>
+    <t>Develop on top of our MVP to serve the first customers and help us reach product market fit together. Establish a tech foundation that's geared for the future, while keeping speed in mind for now. Ensure our SaaS platform stands out in reliability, scalability, low touch onboarding, and user experience.</t>
+  </si>
+  <si>
+    <t>AI/ML Knowledge: Prior experience with AI/ML technologies is a major plus. Preferred tech stack: React (create-t3-app stack), TypeScript, Python, ElasticSearch, LLMs of all kinds.</t>
+  </si>
+  <si>
+    <t>not specified</t>
+  </si>
+  <si>
+    <t>software engineering</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>Principal Applied Researcher in Generative AI</t>
+  </si>
+  <si>
+    <t>Looking for a company that inspires passion, courage and creativity, where you can be on the team shaping the future of global commerce? Want to shape how millions of people buy, sell, connect, and share around the world? If you’re interested in joining a purpose-driven community that is dedicated to crafting an ambitious and inclusive work environment, join eBay – a company you can be proud to be part of.</t>
+  </si>
+  <si>
+    <t>Improve eBay sellers’ advertising campaigns performance through research and development in Generative Artificial Intelligence and Deep Learning applications</t>
+  </si>
+  <si>
+    <t>Proven track record in applied ML research, Masters (PhD a plus) in Electrical Engineering, Computer Science, Statistics or related field. 7+ years of industry and tech lead experience, Strong technical knowledge and experience in Deep Learning, especially in Generative AI (GAN, GPT etc.), Extensive experience with two or more of the following: Natural Language Processing and Large Language Models (LLMs), image and text understanding, recommendation systems, ads targeting and ranking systems or similar, Familiarity with Multi-modal ML, Graph ML and/or Reinforcement Learning is desirable</t>
+  </si>
+  <si>
+    <t>Masters (PhD a plus)</t>
+  </si>
+  <si>
+    <t>Deep Learning, Generative AI, Natural Language Processing, Large Language Models (LLMs), image and text understanding, recommendation systems, ads targeting and ranking systems</t>
+  </si>
+  <si>
+    <t>TNO</t>
+  </si>
+  <si>
+    <t>Graduation Project or Internship in Generative AI for Military Vehicle Detection</t>
+  </si>
+  <si>
+    <t>We are looking for a motivated student to work on a graduation project or internship in the field of generative AI, specifically for military vehicle detection. The goal is to improve the development of a deep learning-based military vehicle detection model by using state-of-the-art generative deep learning methods to close the synthetic-to-real gap for simulated images of military vehicles.</t>
+  </si>
+  <si>
+    <t>The student will work on a graduation project or internship under the supervision of experienced researchers and develop a deep learning-based military vehicle detection model using state-of-the-art generative AI methods. The goal is to improve the development of a deep learning-based military vehicle detection model by using state-of-the-art generative deep learning methods to close the synthetic-to-real gap for simulated images of military vehicles.</t>
+  </si>
+  <si>
+    <t>The student should have a background in artificial intelligence, computer science, physics, mathematics, electrical engineering, systems and control engineering, or a similar degree. The student should also have some track record in the field of computer vision. The preferred duration of the internship/graduation project is 6-12 months.</t>
+  </si>
+  <si>
+    <t>Master's degree</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence, Computer Science, Physics, Mathematics, Electrical Engineering, Systems and Control Engineering</t>
+  </si>
+  <si>
+    <t>Sogeti</t>
+  </si>
+  <si>
+    <t>High Performance Quality Engineering Traineeship</t>
+  </si>
+  <si>
+    <t>Werken bij Sogeti als High Performance Quality Engineering trainee is een unieke kans om jouw carrière te ontwikkelen in het IT-gebied. In dit traineeship werpen we je direct in de knokels van ons vakgebied. Denk aan het inzetten van deze tooling voor testontwerp, testframeworks en het identificeren en rapporteren van bevindingen. We geven daardoor vanaf 2024 een nieuwe richting aan ons traineeship en daarvoor zoeken wij jou!</t>
+  </si>
+  <si>
+    <t>Jouw taak als High Performance Quality Engineering trainee is om jouwselves te ontwikkelen tot een expert in het vakgebied. Hierbij werken we met je Career Manager en directe ervaring op één of meerdere opdrachten.</t>
+  </si>
+  <si>
+    <t>Jij Wilt Jezelf Ontwikkellen Tot Een Expert, Zowel Vakinhoudelijk Als Op Persoonlijk Vlak. Jouw hebben een duidelijk doel voor ogen, bent proactief en denkt mee met klanten en collega's. Zowel teamgericht als zelfstandig werken behoren tot jouw krachten.</t>
+  </si>
+  <si>
+    <t>HBO of WO</t>
+  </si>
+  <si>
+    <t>IT-gerelateerd vakgebied</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Lodgify</t>
+  </si>
+  <si>
+    <t>AI Python Engineer</t>
+  </si>
+  <si>
+    <t>Who we are
+Lodgify is not just any startup, we're a fast-growing company leading the vacation rental industry with our innovative software. And we raised $30M to do exactly that!
+Our platform empowers property owners and managers to efficiently manage and market their rental businesses online. We are an international team of more than 50 nationalities.
+What makes you a great fit?
+You have 3+ years of professional experience with Python,
+You have experience using Generative AI, RAG and vector databases in production,
+You’re able to write production level code in Python (SOLID principles)</t>
+  </si>
+  <si>
+    <t>Implement RAG in production and fine tune each aspect of the process to keep improving its metrics,
+Work collaboratively with other squads and technical chapters.</t>
+  </si>
+  <si>
+    <t>You have 3+ years of professional experience with Python,
+You have experience using Generative AI, RAG and vector databases in production.</t>
+  </si>
+  <si>
+    <t>Bachelor's degree or higher in Computer Science, Software Engineering, or related field.</t>
+  </si>
+  <si>
+    <t>Software Development</t>
+  </si>
+  <si>
+    <t>Grip</t>
+  </si>
+  <si>
+    <t>AI Image Generation Specialist</t>
+  </si>
+  <si>
+    <t>Utilize a wide range of generative AI models and technologies, including StableDiffusion, Dall-E, Midjourney, ComfyUI, ControlNet, and many more, to create compelling visual content...</t>
+  </si>
+  <si>
+    <t>AI-Powered Content Generation, Content Enhancement, Quality Assurance, Cross-Functional Collaboration, AI Research and Stay Current, Creative Problem Solving, Excellent communication and collaboration skills, Ability to adapt to evolving AI technologies and stay at the forefront of the field</t>
+  </si>
+  <si>
+    <t>Proven experience with generative AI technologies, Exceptional visual sensibility and a portfolio showcasing your ability to create visually striking content, Some familiarity with popular AI frameworks, such as ComfyUI and ControlNet, Strong problem-solving skills and a creative mindset, Excellent communication and collaboration skills, Ability to adapt to evolving AI technologies and stay at the forefront of the field</t>
+  </si>
+  <si>
+    <t>Master or PhD in a related field</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Trust Wallet</t>
+  </si>
+  <si>
+    <t>Customer Service Team Leader</t>
+  </si>
+  <si>
+    <t>As a Customer Service Team Leader, you will directly supervise a team of customer service agents and 3 BPO agents to ensure the highest quality of service possible through providing excellent solutions for customer’s inquiries/incidents, assigning work to the team and setting priorities to ensure efficiency and productivity while serving our customers in a professional and positive manner.</t>
+  </si>
+  <si>
+    <t>Manage the day to day operation within your assigned team including process escalating, quality checking and staffing needs, defining support strategy, setting and hitting KPIs. Improve the customers’ experiences by understanding and focusing on demand management, measuring how the team is doing and driving the necessary actions for improvement. Own customers’ issues and raise opportunities for product improvement to Design, Product, and Engineering teams. Ensure customer expectations are achieved/exceeded through excellent customer service. Support the agents on providing accurate, efficient resolutions to complex escalated customer issues. Identify, remove obstacles (if needed), then frame and escalate issues to related departments if they cannot be resolved quickly. Provide leadership, coaching and mentoring to inspire, guide and empower team members to achieve operational goals. Support effective communication across the departments and create a positive work environment. Manage BPO relationships.</t>
+  </si>
+  <si>
+    <t>Minimum of 5 years customer service experience, with at least two years in team lead/supervisor/manager experience in a Customer Service environment. Proactive attitude, hardworking, methodical and very structured, able to work both independently and within a team. Skills in listening, problem solving, conflict handling as well as analysis, planning, management of competing priorities to meet multiple deliverables and deadlines, creativity in seeking new and better solutions, and forward thinking. Ability to learn and adapt in a fast moving environment. Experience in team management with strong leadership skills driven by achieving/exceeding predetermined company targets and KPIs. Familiarity with shift working and shift management. Have an advantage if you used to work in banking, finance, crypto industry.</t>
+  </si>
+  <si>
+    <t>Minimum of 5 years customer service experience</t>
+  </si>
+  <si>
+    <t>Bedrijf</t>
+  </si>
+  <si>
+    <t>Machine Learning Engineer</t>
+  </si>
+  <si>
+    <t>Design, develop and deploy machine learning models and algorithms to solve complex problems.</t>
+  </si>
+  <si>
+    <t>Develop and maintain machine learning models and algorithms, Collaborate with cross-functional teams to integrate models into larger systems, Optimize model performance and accuracy, Identify and troubleshoot issues in model training and deployment.</t>
+  </si>
+  <si>
+    <t>Bachelor's degree in Computer Science, Machine Learning, or related field; 3+ years of experience in machine learning engineering; Strong programming skills in languages such as Python, R, or MATLAB; Experience with machine learning frameworks and libraries such as TensorFlow, PyTorch, or Scikit-learn; Familiarity with data preprocessing and visualization tools; Excellent communication and collaboration skills.</t>
+  </si>
+  <si>
+    <t>Bachelor's degree</t>
+  </si>
+  <si>
+    <t>Machine learning</t>
+  </si>
+  <si>
+    <t>Future Facts Conclusion</t>
+  </si>
+  <si>
+    <t>AI Engineer</t>
+  </si>
+  <si>
+    <t>Are you a Data Engineer or Data Scientist with a passion for Artificial Intelligence (AI)? Do you have at least two years of work experience? And are you eager to further develop your skills? We offer you the unique opportunity to grow in a Fast Track program of six weeks and become an expert in AI. After this training program, you will have the following skills and knowledge: 
+Programming skills (Python) 
+Data analysis, mining, cleaning, visualization 
+Cloud- and platform engineering 
+MLOps 
+DevOps &amp; Version Control (Git) 
+CI/CD (Docker/Kubernetes/Linux) 
+AI Ethics &amp; Security 
+Specialization in: Deep Learning, Computer Vision, Generative AI (LLM) or Internet of Things 
+After a successful completion, you will have the knowledge and skills to design, develop and maintain AI systems. You will directly start working on a project and will work together with senior colleagues to apply your acquired skills in practice. Together, you will ensure that you continue to develop and the customer's landscape will be taken to a higher level. 
+Who are we? 
+Future Facts Conclusion is part of the Hot Item Group and is the AI partner of the Netherlands. We guide driven organizations in further growth by using the latest technology in the field of Artificial Intelligence, Machine Learning, Cloud Solutions, and Internet of Things. With a team of highly qualified professionals, we realize sustainable impact for people, organization, and society. 
+Requirements 
+A salary between € 3,500,- and € 4,000,- excluding 40 hours 
+A lease budget and bonus regulation 
+Telephone and laptop from the company 
+Online and internet allowance 
+27 vacation days and 2 performance days 
+Attention to a personal development plan and many opportunities to build knowledge through courses, training, and education 
+Flexible work: control over your own working hours - both at home and at the customer's location, offer a good reachable workplace in Amsterdam with a beautiful view over the IJ 
+Weekly massage, gym, sailboat, terrace, and café where you can always have a chat with your colleagues. 
+What do you bring? 
+WO work- and thinking level 
+Ambition, adaptability, sharpness, and solution-oriented thinking 
+At least 2 years of work experience as a Data Engineer, Data Scientist, or Machine Learning Engineer 
+Completed education in Computer Science, Data Science, Informatics, or another STEM-related field 
+Good understanding of programming in Python 
+Experience with big data technology 
+Knowledge of the business sector and commercial aspects 
+Consultancy skills 
+Excellent command of the Dutch and English languages (in case there is no information in the job posting to answer the keys leave the value associated with the key blank).</t>
+  </si>
+  <si>
+    <t>RevoData</t>
+  </si>
+  <si>
+    <t>Data Engineer</t>
+  </si>
+  <si>
+    <t>We are RevoData, a fast-growing data engineering company that is revolutionizing the way data is processed and analyzed. We are looking for a talented Data Engineer to join our team in Amsterdam.</t>
+  </si>
+  <si>
+    <t>Design and implement large-scale data pipelines, work with cutting-edge technologies such as Databricks, Bicep, DBT, OpenAI, and ChatGPT, and contribute to the development of new data engineering solutions.</t>
+  </si>
+  <si>
+    <t>Must have experience working with public cloud (Azure or AWS), familiarity with SQL and Python, and a passion for learning and experimenting with new technologies. Additionally, must be able to work independently and as part of a team, and have excellent communication skills.</t>
+  </si>
+  <si>
+    <t>Bachelor's degree or higher in Computer Science, Engineering, or related field</t>
+  </si>
+  <si>
+    <t>Data engineering, data science, or related field</t>
+  </si>
+  <si>
+    <t>Experience with Generative AI is a plus</t>
+  </si>
+  <si>
+    <t>Experience with NLP is a plus</t>
+  </si>
+  <si>
+    <t>Experience with Machine Learning is a plus</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Are you poised to blend your AI skills with a dash of creativity to redefine efficiency at Loop? As an AI Engineer, you'll become a pivotal part of a team dedicated to reshaping how we work, making every process smarter, faster, and more intuitive.</t>
+  </si>
+  <si>
+    <t>Lead Innovations: Spearhead the development of AI solutions, from ChatGPT to advanced open-source platforms like HuggingFace and Gradio. Integrate and Optimize: Seamlessly blend AI functionalities into our ecosystem, enhancing user experience and operational efficiency. Customize AI Solutions: Tailor AI models to fit unique organizational needs, setting new standards for customization and effectiveness. Manage and Collaborate: Drive projects from concept to execution, ensuring alignment across stakeholders and teams. Champion Project Excellence: Excel in project management, delivering AI initiatives on time and within scope.</t>
+  </si>
+  <si>
+    <t>Technical Mastery: Deep expertise in Python, Streamlit, or Gradio, and a knack for data manipulation with libraries like pandas and NumPy. AI and ML Acumen: Profound knowledge of TensorFlow, PyTorch, and NLP, with a solid foundation in AI and ML principles. Community Engagement: A track record of active participation in the AI community, showcasing your contributions to open-source projects.</t>
+  </si>
+  <si>
+    <t>Competitive pay in the top 20% of the market rate for your level of experience and potential.</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +393,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,131 +717,451 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Job title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Language of job posting</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>responsibilities</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>requirements</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Educational level</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Field of ICT</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>GenerativeAI</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>NLP</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Machine Learning</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>eBay</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Principal Applied Researcher in Generative AI</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Looking for a company that inspires passion, courage and creativity, where you can be on the team shaping the future of global commerce? Want to shape how millions of people buy, sell, connect, and share around the world? If you’re interested in joining a purpose-driven community that is dedicated to crafting an ambitious and inclusive work environment, join eBay – a company you can be proud to be part of.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Improve eBay sellers’ advertising campaigns performance through research and development in Generative Artificial Intelligence and Deep Learning applications</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Proven track record in applied ML research, Masters (PhD a plus) in Electrical Engineering, Computer Science, Statistics or related field. 7+ years of industry and tech lead experience, Strong technical knowledge and experience in Deep Learning, especially in Generative AI (GAN, GPT etc.), Extensive experience with two or more of the following: Natural Language Processing and Large Language Models (LLMs), image and text understanding, recommendation systems, ads targeting and ranking systems or similar, Familiarity with Multi-modal ML, Graph ML and/or Reinforcement Learning is desirable</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Masters (PhD a plus)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Deep Learning, Generative AI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
